--- a/data/trans_dic/P1002-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02694891788906383</v>
+        <v>0.02703420586957668</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04683971767340306</v>
+        <v>0.04768328259951696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04452756323395018</v>
+        <v>0.04377298113822831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03863868046675888</v>
+        <v>0.03929822387329842</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03842021376429841</v>
+        <v>0.03836613376440885</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1229233756880335</v>
+        <v>0.119780026013696</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08824212255002999</v>
+        <v>0.0908577793895578</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08155216284335723</v>
+        <v>0.07989261062706321</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03417315511462392</v>
+        <v>0.03514881076642704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09093505506097581</v>
+        <v>0.09060429071323535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07116656828151019</v>
+        <v>0.07241724761221509</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06344220596383628</v>
+        <v>0.0647978137203791</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05780378590117236</v>
+        <v>0.05518987793543399</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08520475409392957</v>
+        <v>0.08725308495975895</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08330195608806014</v>
+        <v>0.07966530958291454</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07359464252762297</v>
+        <v>0.07374392456153751</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07266410383511926</v>
+        <v>0.07169408562602723</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1810176038336017</v>
+        <v>0.1752830497564997</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1401319354043935</v>
+        <v>0.1402571006560664</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1153763723657484</v>
+        <v>0.1139258624824505</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05703941158222914</v>
+        <v>0.05749778668664616</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1230678153549853</v>
+        <v>0.123380058317828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1047079373401083</v>
+        <v>0.1037981177635136</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08763265271744446</v>
+        <v>0.08897844106636951</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.07310761714898237</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.07851059560855049</v>
+        <v>0.0785105956085505</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03827613977237888</v>
+        <v>0.03972243261159923</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05777682764578682</v>
+        <v>0.05766010003073753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02693811488370417</v>
+        <v>0.02839018074806199</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04199660862544295</v>
+        <v>0.04217067267301185</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05591536330109643</v>
+        <v>0.05524954835185403</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1228259323132299</v>
+        <v>0.1226279610717731</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08763921994257561</v>
+        <v>0.08827821551723916</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08710096160434282</v>
+        <v>0.08619864243258271</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05271602377098623</v>
+        <v>0.05108649357216711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09638341536480262</v>
+        <v>0.09617030575199079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06172531552423378</v>
+        <v>0.06072072814436539</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06857659088305321</v>
+        <v>0.06864718962758452</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06720263332441798</v>
+        <v>0.06718602089417262</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.091917421000658</v>
+        <v>0.09200291970147592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05157155418063596</v>
+        <v>0.05301435180125223</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07036433953851308</v>
+        <v>0.07082279383621477</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09243038771012259</v>
+        <v>0.0917825999827627</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1679791819076628</v>
+        <v>0.1690248682523946</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1290304581956716</v>
+        <v>0.1290834366477395</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1202680602711191</v>
+        <v>0.1182126254368858</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07505170119826067</v>
+        <v>0.07519900112907588</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1242531326410088</v>
+        <v>0.1256631088235359</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08423870252261542</v>
+        <v>0.08485066982950558</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09042118195179318</v>
+        <v>0.09088974038643066</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04644297000298666</v>
+        <v>0.04593601693767677</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04107522903347978</v>
+        <v>0.04027427737651847</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03384559780561854</v>
+        <v>0.03462984844460095</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05593061470798681</v>
+        <v>0.05478754896271442</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09784250029243427</v>
+        <v>0.0985881633718418</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.10723921097719</v>
+        <v>0.1076406011692584</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09186914461926438</v>
+        <v>0.0910392521520146</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09241833042035009</v>
+        <v>0.09126631238550055</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07781773649621637</v>
+        <v>0.07855274501791677</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07891183379050018</v>
+        <v>0.07977400504074282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06767478077196629</v>
+        <v>0.06818875549224389</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07884999893501807</v>
+        <v>0.07925309889232571</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08293570086250235</v>
+        <v>0.086161438378207</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0800113205103493</v>
+        <v>0.07839682016124325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06953222601342038</v>
+        <v>0.06941667288906306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09688787956111233</v>
+        <v>0.09669331011901418</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1475666167884043</v>
+        <v>0.1489307860065797</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1589689345752414</v>
+        <v>0.1583769810713573</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1394726461487474</v>
+        <v>0.1358797035849063</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1349468891556609</v>
+        <v>0.1324807201091397</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1095795805398554</v>
+        <v>0.1092522572357831</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1118233424749959</v>
+        <v>0.1099816502232183</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09885192883333788</v>
+        <v>0.09746093504363187</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1078409134529437</v>
+        <v>0.108841479981405</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03944489444585033</v>
+        <v>0.04043216290421379</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05429241380712652</v>
+        <v>0.05320662387945239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05259895743448503</v>
+        <v>0.05216278491899578</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03808103050078433</v>
+        <v>0.039008868455327</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0766135051253243</v>
+        <v>0.07621341892715568</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1151278090577923</v>
+        <v>0.1141530030298665</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07977390997148777</v>
+        <v>0.07992865144137741</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1008132552923246</v>
+        <v>0.1034207498622395</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06438913130645602</v>
+        <v>0.06312960611269543</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09066294693011048</v>
+        <v>0.09113292739063963</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07135087934396107</v>
+        <v>0.07072119578807583</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07597275899151971</v>
+        <v>0.07658827809142227</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06962565519236012</v>
+        <v>0.06992677338575033</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08945920278880487</v>
+        <v>0.09017129815420974</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08669684099910585</v>
+        <v>0.08677560146781634</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06668090738775161</v>
+        <v>0.06459937911981289</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1126538583618854</v>
+        <v>0.1115822167273123</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1574106217506035</v>
+        <v>0.1565859102229145</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1180232676075907</v>
+        <v>0.1185466557203079</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.135063345811454</v>
+        <v>0.1367438647057133</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08857049074338913</v>
+        <v>0.08672017010111045</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.119846721075678</v>
+        <v>0.1191435565592936</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0972900324378532</v>
+        <v>0.09647956955221981</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09804054935522606</v>
+        <v>0.09760400449217936</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.08063543046025795</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08338369976374024</v>
+        <v>0.08338369976374026</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05819748872309573</v>
+        <v>0.05858668507703232</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04640328862307517</v>
+        <v>0.04563499933950266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04986364540248824</v>
+        <v>0.04996355194613659</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1283439737729309</v>
+        <v>0.1258722863107273</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09734593562487395</v>
+        <v>0.09576970858402277</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09902182280590767</v>
+        <v>0.09856670474054721</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09662109567559635</v>
+        <v>0.09643417675379984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07390109124363026</v>
+        <v>0.07444105189315071</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07761295882796553</v>
+        <v>0.07769003416436204</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0769358020729087</v>
+        <v>0.07624692242660905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06226696394403217</v>
+        <v>0.06145104242093648</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06600516980414559</v>
+        <v>0.066107937619137</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1526526451169389</v>
+        <v>0.1513068300136877</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1189623545781974</v>
+        <v>0.118876249167771</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1174174911417711</v>
+        <v>0.1173348062631085</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1124434051774719</v>
+        <v>0.1122331801093294</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08787393885071544</v>
+        <v>0.0873515454091955</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08966912292211414</v>
+        <v>0.08969348534244773</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18703</v>
+        <v>18762</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>32950</v>
+        <v>33544</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30047</v>
+        <v>29538</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26688</v>
+        <v>27144</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26447</v>
+        <v>26409</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>85684</v>
+        <v>83493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59373</v>
+        <v>61133</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>59738</v>
+        <v>58522</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>47240</v>
+        <v>48588</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>127356</v>
+        <v>126893</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>95907</v>
+        <v>97592</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>90292</v>
+        <v>92222</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40117</v>
+        <v>38302</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>59939</v>
+        <v>61380</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>56212</v>
+        <v>53758</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>50833</v>
+        <v>50936</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>50018</v>
+        <v>49351</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>126178</v>
+        <v>122181</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>94286</v>
+        <v>94370</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>84515</v>
+        <v>83452</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>78849</v>
+        <v>79483</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>172359</v>
+        <v>172796</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>141108</v>
+        <v>139882</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>124721</v>
+        <v>126636</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36814</v>
+        <v>38205</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>58753</v>
+        <v>58634</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27542</v>
+        <v>29027</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>44051</v>
+        <v>44234</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>54148</v>
+        <v>53503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>126779</v>
+        <v>126575</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>91400</v>
+        <v>92066</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>93207</v>
+        <v>92241</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>101752</v>
+        <v>98607</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>197497</v>
+        <v>197060</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>127484</v>
+        <v>125409</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>145315</v>
+        <v>145464</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64635</v>
+        <v>64620</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>93470</v>
+        <v>93557</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>52728</v>
+        <v>54204</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73806</v>
+        <v>74287</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>89509</v>
+        <v>88882</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>173385</v>
+        <v>174465</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>134568</v>
+        <v>134623</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>128699</v>
+        <v>126499</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>144864</v>
+        <v>145149</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>254604</v>
+        <v>257493</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>173982</v>
+        <v>175246</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>191604</v>
+        <v>192597</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>31512</v>
+        <v>31168</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31120</v>
+        <v>30513</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25707</v>
+        <v>26303</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44916</v>
+        <v>43998</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>66909</v>
+        <v>67419</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>83230</v>
+        <v>83542</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>72118</v>
+        <v>71467</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>75068</v>
+        <v>74132</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>106015</v>
+        <v>107016</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>121030</v>
+        <v>122353</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>104528</v>
+        <v>105322</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>127369</v>
+        <v>128020</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>56273</v>
+        <v>58461</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60618</v>
+        <v>59395</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>52813</v>
+        <v>52726</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>77808</v>
+        <v>77652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>100912</v>
+        <v>101845</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>123379</v>
+        <v>122919</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>109488</v>
+        <v>106667</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>109612</v>
+        <v>107609</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>149286</v>
+        <v>148840</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>171508</v>
+        <v>168683</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>152683</v>
+        <v>150535</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>174199</v>
+        <v>175815</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37166</v>
+        <v>38096</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>51404</v>
+        <v>50376</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49315</v>
+        <v>48906</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37657</v>
+        <v>38574</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>79572</v>
+        <v>79156</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>120994</v>
+        <v>119970</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>83266</v>
+        <v>83428</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>112758</v>
+        <v>115674</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>127544</v>
+        <v>125049</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>181123</v>
+        <v>182062</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>141371</v>
+        <v>140123</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>160101</v>
+        <v>161398</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65603</v>
+        <v>65887</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>84700</v>
+        <v>85374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81284</v>
+        <v>81358</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65938</v>
+        <v>63880</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>117004</v>
+        <v>115891</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>165432</v>
+        <v>164565</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>123190</v>
+        <v>123737</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>151066</v>
+        <v>152945</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>175443</v>
+        <v>171778</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>239425</v>
+        <v>238020</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>192765</v>
+        <v>191159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>206605</v>
+        <v>205685</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>199314</v>
+        <v>200647</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>157509</v>
+        <v>154901</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>176096</v>
+        <v>176449</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>456431</v>
+        <v>447641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>345047</v>
+        <v>339460</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>369683</v>
+        <v>367984</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>674521</v>
+        <v>673216</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>512792</v>
+        <v>516538</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>563851</v>
+        <v>564411</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>263489</v>
+        <v>261130</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>211356</v>
+        <v>208586</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>233101</v>
+        <v>233464</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>542880</v>
+        <v>538094</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>421667</v>
+        <v>421362</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>438360</v>
+        <v>438052</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>784978</v>
+        <v>783511</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>609748</v>
+        <v>606123</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>651438</v>
+        <v>651615</v>
       </c>
     </row>
     <row r="24">
